--- a/biology/Botanique/Hiptage_benghalensis/Hiptage_benghalensis.xlsx
+++ b/biology/Botanique/Hiptage_benghalensis/Hiptage_benghalensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hiptage benghalensis, la liane de cerf, est une espèce de plantes à fleurs dicotylédones de la famille des Malpighiaceae, originaire d'Asie tropicale.
 C'est une liane ligneuse, aux feuilles opposées, des régions subtropicales à tropicales, originaire d'Inde, d'Asie du sud-est et des Philippines. Elle est devenue envahissante en Floride, à Hawaï, à La Réunion, à Maurice et dans l'ouest de l'Australie. Elle étouffe les arbres sur lesquels elle prend appui.
 Sa tige peut devenir très ligneuse en se développant. On parle alors de tronc et la plante peut être considérée comme un arbuste.
 Noms vernaculaires
-liane de cerf, liane papillon (La Réunion) ; liane de Cythère, liane de fleurs d'oranger, liane rouge (Maurice)[1].
+liane de cerf, liane papillon (La Réunion) ; liane de Cythère, liane de fleurs d'oranger, liane rouge (Maurice).
 </t>
         </is>
       </c>
@@ -515,11 +527,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été d'abord décrite par Linné sous le nom de Banisteria benghalensis L. (basionyme). Le nom binominal actuel est dû au botaniste allemand, Wilhelm Sulpiz Kurz, et a été publiée en 1874 dans le Journal of the Asiatic Society of Bengal (Part 2. Natural History 43: 136.)[2].
-Synonymes
-Selon Invasive Species Compendium (ISC)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été d'abord décrite par Linné sous le nom de Banisteria benghalensis L. (basionyme). Le nom binominal actuel est dû au botaniste allemand, Wilhelm Sulpiz Kurz, et a été publiée en 1874 dans le Journal of the Asiatic Society of Bengal (Part 2. Natural History 43: 136.).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hiptage_benghalensis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hiptage_benghalensis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Invasive Species Compendium (ISC) :
 Banisteria benghalensis L.
 Banisteria tetraptera Sonnerat
 Banisteria unicapsularis Lam.
@@ -541,14 +590,50 @@
 Molina racemosa Cav.
 Succowia fimbriata Dennst.
 Triopteris jamaicensis L.
-Liste des sous-espèces et variétés
-Selon Catalogue of Life                                   (17 septembre 2016)[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hiptage_benghalensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hiptage_benghalensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Selon Catalogue of Life                                   (17 septembre 2016) :
 sous-espèce Hiptage benghalensis subsp. benghalensis
 sous-espèce Hiptage benghalensis subsp. candicans
 variété Hiptage benghalensis var. longifolia
 variété Hiptage benghalensis var. rothinii
 variété Hiptage benghalensis var. tonkinensis
-Selon Tropicos                                           (17 septembre 2016)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (17 septembre 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Hiptage benghalensis subsp. candicans (Hook. f.) Sirirugsa
 variété Hiptage benghalensis var. benghalensis
 variété Hiptage benghalensis var. longifolia R.C. Srivast.
@@ -558,37 +643,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Hiptage_benghalensis</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hiptage_benghalensis</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Hiptage benghalensis est une plante largement cultivée comme plante ornementale dans les régions tropicales pour ses fleurs attrayantes et odorantes.
 On peut la tailler pour la former comme un arbre ou un arbuste, ou la conduire comme une plante grimpante.
 La plante est aussi occasionnellement cultivée à des fins médicinales dans le cadre de plusieurs médecines traditionnelles pour soigner diverses maladies.
 Cette plante est réputée posséder des propriétés antibactériennes, antifongiques, antidiabétiques, anti-inflammatoires, anticancéreuses, antimutagènes et hépatoprotectrices.
-Selon l'Ayurveda, Hiptage benghalensis est rafraîchissante, vulnéraire, astringente, expectorante, cardiotonique, anti-inflammatoire, insecticide, cicatrisante, et est utilisée pour traiter notamment la sensation de brûlure, les blessures, le prurit, les ulcères, la gale, la lèpre, les maladies de peau, la toux, l'asthme, les problèmes cardiaques, les rhumatismes, l'obésité, les hémorragies, etc[5].
+Selon l'Ayurveda, Hiptage benghalensis est rafraîchissante, vulnéraire, astringente, expectorante, cardiotonique, anti-inflammatoire, insecticide, cicatrisante, et est utilisée pour traiter notamment la sensation de brûlure, les blessures, le prurit, les ulcères, la gale, la lèpre, les maladies de peau, la toux, l'asthme, les problèmes cardiaques, les rhumatismes, l'obésité, les hémorragies, etc.
 </t>
         </is>
       </c>
